--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,6211 @@
           <t>autoshop26.ru_price</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>autocenter-stav.ru</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>autocenter-stav.ru_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BJ40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3609000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3609000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>U5 Plus</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1589000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1589000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X35</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/x35/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/x35/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X55</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1928500</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1928500</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alsvin</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1039900</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1039900</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS35 Plus New</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1589900</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1589900</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>767000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>767000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS55 Plus</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1913900</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1913900</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CS75FL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1442900</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1442900</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CS85 Coupe</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2389900</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2389900</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CS95</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2999900</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2999900</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Eado Plus</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1599900</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1599900</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hunter Plus</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2809900</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2809900</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lamore</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1989900</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1989900</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UNI-K</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3279900</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3279900</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UNI-T</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2109900</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2109900</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UNI-V</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1919900</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1919900</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arrizo 8</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1960000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1960000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tiggo 3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>661900</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>661900</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tiggo 4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>867900</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>867900</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tiggo 4 Pro</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1079900</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1079900</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tiggo 5</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>640900</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>640900</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tiggo 7</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>987900</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>987900</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1137900</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1137900</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro Max</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1559900</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1559900</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro Max New</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1939000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1939000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tiggo 8</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1289900</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1229900</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1229900</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro Max</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3089900</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3089900</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro Max New</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2912000</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2912000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cobalt</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>617900</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>617900</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nexia</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>567900</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Spark</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>627900</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>627900</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DFM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1110000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DFM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AX7</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1149000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LX</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1449900</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RX</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4600000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TXL</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1449900</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>VX</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2515900</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2515900</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bestune B70</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1718000</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1718000</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bestune T55</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1678610</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1678610</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bestune T77</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1555000</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1555000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bestune T99</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2490000</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2490000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>X40</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>898000</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>X80</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>938000</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gac</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GS5</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1574300</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1574300</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gac</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GS8</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2729300</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2729300</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1177990</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1177990</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Atlas New</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2236493</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2236493</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Atlas Pro</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1554990</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1554990</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Belgee X50</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1935990</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1935990</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Coolray</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>865990</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>865990</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Coolray New</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1794990</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1794990</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Emgrand New</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1799990</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1799990</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Emgrand X7</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>867990</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>867990</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>987990</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>987990</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Monjaro</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3039000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3039000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Okavango New</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2414993</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2414993</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tugella New</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1859990</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1859990</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dargo</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1789000</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dargo X</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2709000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2709000</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>F7 New</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1189000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1189000</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F7x New</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1259000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1259000</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1137000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1137000</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1863000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1863000</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Jolion</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1049000</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jolion New</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1399300</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1399300</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1349000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Creta New</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>979000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>979000</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Elantra New</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1067000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1067000</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>685000</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>685000</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sonata</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1482000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1482000</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tucson New</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1489000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1489000</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>779000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>779000</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>315000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>315000</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JAECOO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2439900</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2439900</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dashing</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1529900</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1529900</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>X70 Plus</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2099930</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2099930</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>X90 Plus</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2439900</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2439900</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>VA3</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>890000</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>890000</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>VS5</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1190000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1190000</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>VS7</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1349000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1349000</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1417650</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1417650</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>X3 Pro</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1790000</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>X7 Kunlun</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2098530</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2098530</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ceed</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1169900</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ceed SW</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1289900</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cerato New</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1234900</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1234900</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1339000</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1339000</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Picanto New</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>739900</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>739900</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ProCeed</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rio New</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>629900</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>629900</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rio X</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>847900</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>847900</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rio X-Line</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>758900</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>758900</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Seltos</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1002900</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1002900</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Soul</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>884900</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sportage 5</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>XCeed</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>962900</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>962900</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Granta Cross</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>354400</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>354400</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Granta Drive Active</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>412500</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>412500</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Granta Hatchback</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>368500</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>368500</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Granta Liftback</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>365500</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>365500</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Granta Sedan</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>348500</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>348500</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Granta Universal</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>340900</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>340900</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Largus Cross New</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>617900</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>617900</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Largus New</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>530000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>530000</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Niva</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>587000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>587000</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Niva Legend 3 двери</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>608900</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>608900</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Niva Legend 5 дверей</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>708900</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>708900</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Niva Off-Road</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>659000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>659000</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Niva Travel</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>547000</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>547000</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Vesta CNG</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1006900</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1006900</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Vesta Cross</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>969900</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>969900</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Vesta Cross New</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1132900</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1132900</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Vesta SW</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>913900</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>913900</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1028900</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1028900</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross New</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1109900</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1109900</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Vesta SW New</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>919900</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>919900</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Vesta Sedan</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>821900</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>821900</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Vesta Sedan New</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>829900</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>829900</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Vesta Sport</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1297900</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Xray</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>496900</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>496900</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Xray Cross</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>614000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Фургон New</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>531000</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>531000</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Murman</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>734000</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>734000</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MyWay</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>689900</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>689900</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Solano 2</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>466600</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>466600</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>X50</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>454000</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>454000</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>X60</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>485000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>485000</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>X70</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>779000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>779000</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>S6 Pro</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1784930</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>X3 Pro</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1569900</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1569900</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>X6 Pro</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1840930</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3e</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>3500000</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Murano</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2039000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2039000</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Qashqai</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1127000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1127000</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Terrano</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>619000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>619000</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>X-trail</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1486000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1486000</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1319900</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1319900</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1449900</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Nexia R3</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>463000</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>463000</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>484000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>484000</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>516000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Arkana</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1014000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Duster New</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>755000</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>755000</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Kaptur</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>660000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>660000</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Logan</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>573000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>573000</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Logan Stepway</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>698000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>698000</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Logan Stepway City</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>697000</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>697000</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sandero</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>583000</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>583000</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sandero Stepway</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>741000</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>741000</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Stepway City</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>721000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>721000</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Karoq</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1547000</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Kodiaq New</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Octavia New</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1247000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1247000</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rapid</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>685000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>685000</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Superb</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2128000</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2128000</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Superb Combi</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>2421000</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2421000</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1749300</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1749300</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1407000</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>KRS</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1426600</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>1426600</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>KRX</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1444800</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>3189000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>3189000</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4599000</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>4599000</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>635000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>635000</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Patriot</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>709000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>709000</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Patriot Pickup</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>727000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>727000</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1417000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1411900</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>T600</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>884600</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>884600</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -4251,7 +4251,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4261,32 +4261,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>587000</v>
+        <v>531000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>608900</v>
+        <v>587000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>708900</v>
+        <v>608900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4366,32 +4366,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>659000</v>
+        <v>708900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4401,32 +4401,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>547000</v>
+        <v>659000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4436,25 +4436,25 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta CNG</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1006900</v>
+        <v>547000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4716,32 +4716,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>829900</v>
+        <v>1006900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4751,32 +4751,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1297900</v>
+        <v>829900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4786,32 +4786,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4821,32 +4821,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>614000</v>
+        <v>496900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4856,25 +4856,25 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Фургон New</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>531000</v>
+        <v>614000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -4006,7 +4006,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4016,32 +4016,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>412500</v>
+        <v>368500</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4051,32 +4051,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>368500</v>
+        <v>365500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4086,32 +4086,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>365500</v>
+        <v>348500</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4121,25 +4121,25 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>348500</v>
+        <v>412500</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,20 +449,10 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>autoshop26.ru</t>
+          <t>autocenter-stav.ru</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>autoshop26.ru_price</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>autocenter-stav.ru</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>autocenter-stav.ru_price</t>
         </is>
@@ -492,12 +482,12 @@
           <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3609000</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
         </is>
@@ -527,12 +517,12 @@
           <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1589000</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
         </is>
@@ -562,12 +552,12 @@
           <t>https://autocenter-stav.ru/auto/baic/x35/</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1609000</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/x35/</t>
         </is>
@@ -597,12 +587,12 @@
           <t>https://autocenter-stav.ru/auto/baic/x55/</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1928500</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/x55/</t>
         </is>
@@ -632,12 +622,12 @@
           <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1039900</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
@@ -667,12 +657,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1589900</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
@@ -702,12 +692,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>767000</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
@@ -737,12 +727,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1913900</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
@@ -772,12 +762,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1442900</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
@@ -807,12 +797,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2389900</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
@@ -842,12 +832,12 @@
           <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2999900</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
@@ -877,12 +867,12 @@
           <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1599900</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
@@ -912,12 +902,12 @@
           <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2809900</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
@@ -947,12 +937,12 @@
           <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1989900</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
@@ -982,12 +972,12 @@
           <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3279900</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
@@ -1017,12 +1007,12 @@
           <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2109900</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
@@ -1052,12 +1042,12 @@
           <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1919900</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
@@ -1087,12 +1077,12 @@
           <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1960000</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
@@ -1122,12 +1112,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>661900</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
@@ -1157,12 +1147,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>867900</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
@@ -1192,12 +1182,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1079900</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
@@ -1227,12 +1217,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>640900</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
@@ -1262,12 +1252,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>987900</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
@@ -1297,12 +1287,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1137900</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
@@ -1332,12 +1322,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1559900</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
@@ -1367,12 +1357,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1939000</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
@@ -1402,12 +1392,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1289900</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
@@ -1437,12 +1427,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1229900</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
@@ -1472,12 +1462,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>3089900</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
@@ -1507,12 +1497,12 @@
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2912000</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
@@ -1542,12 +1532,12 @@
           <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>617900</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
@@ -1577,12 +1567,12 @@
           <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>567900</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
@@ -1612,12 +1602,12 @@
           <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>627900</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
@@ -1647,12 +1637,12 @@
           <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1110000</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
@@ -1682,12 +1672,12 @@
           <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1149000</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
@@ -1717,12 +1707,12 @@
           <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
@@ -1752,12 +1742,12 @@
           <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>4600000</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
@@ -1787,12 +1777,12 @@
           <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
@@ -1822,12 +1812,12 @@
           <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2515900</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
@@ -1857,12 +1847,12 @@
           <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1718000</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
@@ -1892,12 +1882,12 @@
           <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1678610</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
@@ -1927,12 +1917,12 @@
           <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1555000</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
@@ -1962,12 +1952,12 @@
           <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2490000</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
@@ -1997,12 +1987,12 @@
           <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>898000</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
@@ -2032,12 +2022,12 @@
           <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>938000</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
@@ -2067,12 +2057,12 @@
           <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1574300</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
@@ -2102,12 +2092,12 @@
           <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2729300</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
@@ -2137,12 +2127,12 @@
           <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1177990</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
@@ -2172,12 +2162,12 @@
           <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2236493</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
@@ -2207,12 +2197,12 @@
           <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1554990</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
@@ -2242,12 +2232,12 @@
           <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1935990</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
         </is>
@@ -2277,12 +2267,12 @@
           <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>865990</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
@@ -2312,12 +2302,12 @@
           <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1794990</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
@@ -2347,12 +2337,12 @@
           <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1799990</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
@@ -2382,12 +2372,12 @@
           <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>867990</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
@@ -2417,12 +2407,12 @@
           <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>987990</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
@@ -2452,12 +2442,12 @@
           <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>3039000</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
@@ -2487,12 +2477,12 @@
           <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2414993</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
@@ -2522,12 +2512,12 @@
           <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1859990</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
@@ -2557,12 +2547,12 @@
           <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1789000</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
@@ -2592,12 +2582,12 @@
           <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2709000</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
@@ -2627,12 +2617,12 @@
           <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1189000</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
@@ -2662,12 +2652,12 @@
           <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1259000</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
@@ -2697,12 +2687,12 @@
           <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1137000</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
@@ -2732,12 +2722,12 @@
           <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1863000</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
@@ -2767,12 +2757,12 @@
           <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1049000</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
@@ -2802,12 +2792,12 @@
           <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1399300</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
@@ -2837,12 +2827,12 @@
           <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
@@ -2872,12 +2862,12 @@
           <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>979000</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
@@ -2907,12 +2897,12 @@
           <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1067000</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
@@ -2942,12 +2932,12 @@
           <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>685000</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
@@ -2977,12 +2967,12 @@
           <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1482000</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
@@ -3012,12 +3002,12 @@
           <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1489000</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
@@ -3047,12 +3037,12 @@
           <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>779000</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
@@ -3082,12 +3072,12 @@
           <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>315000</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
@@ -3117,12 +3107,12 @@
           <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1199000</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
@@ -3152,12 +3142,12 @@
           <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2439900</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
@@ -3187,12 +3177,12 @@
           <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1529900</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
@@ -3222,12 +3212,12 @@
           <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2099930</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
@@ -3257,12 +3247,12 @@
           <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2439900</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
@@ -3292,12 +3282,12 @@
           <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>890000</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
@@ -3327,12 +3317,12 @@
           <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1190000</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
@@ -3362,12 +3352,12 @@
           <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
@@ -3397,12 +3387,12 @@
           <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
@@ -3432,12 +3422,12 @@
           <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1417650</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
@@ -3467,12 +3457,12 @@
           <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1790000</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
@@ -3502,12 +3492,12 @@
           <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2098530</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
@@ -3537,12 +3527,12 @@
           <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1169900</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
@@ -3572,12 +3562,12 @@
           <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1289900</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
@@ -3607,12 +3597,12 @@
           <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1234900</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
@@ -3642,12 +3632,12 @@
           <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1339000</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
@@ -3677,12 +3667,12 @@
           <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>739900</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
@@ -3712,12 +3702,12 @@
           <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1534900</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
@@ -3747,12 +3737,12 @@
           <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>629900</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
@@ -3782,12 +3772,12 @@
           <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>847900</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
@@ -3817,12 +3807,12 @@
           <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>758900</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
@@ -3852,12 +3842,12 @@
           <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1002900</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
@@ -3887,12 +3877,12 @@
           <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>884900</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
@@ -3922,12 +3912,12 @@
           <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1829000</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
@@ -3957,12 +3947,12 @@
           <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>962900</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
@@ -3992,12 +3982,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>354400</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
@@ -4027,12 +4017,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>368500</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
@@ -4062,12 +4052,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>365500</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
@@ -4097,12 +4087,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>348500</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
@@ -4132,12 +4122,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>412500</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
@@ -4167,12 +4157,12 @@
           <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>340900</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
@@ -4202,12 +4192,12 @@
           <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>617900</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
@@ -4237,12 +4227,12 @@
           <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>530000</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
@@ -4272,12 +4262,12 @@
           <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>531000</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
@@ -4307,12 +4297,12 @@
           <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>587000</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
@@ -4342,12 +4332,12 @@
           <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>608900</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
@@ -4377,12 +4367,12 @@
           <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>708900</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
@@ -4412,12 +4402,12 @@
           <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>659000</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
@@ -4447,12 +4437,12 @@
           <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>547000</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
@@ -4482,12 +4472,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>969900</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
@@ -4517,12 +4507,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1132900</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
@@ -4552,12 +4542,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>913900</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
@@ -4587,12 +4577,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1028900</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
@@ -4622,12 +4612,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1109900</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
@@ -4657,12 +4647,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>919900</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
@@ -4692,12 +4682,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>821900</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
@@ -4727,12 +4717,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1006900</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
@@ -4762,12 +4752,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>829900</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
@@ -4797,12 +4787,12 @@
           <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1297900</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
@@ -4832,12 +4822,12 @@
           <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>496900</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
@@ -4867,12 +4857,12 @@
           <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>614000</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
@@ -4902,12 +4892,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>734000</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
@@ -4937,12 +4927,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>689900</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
@@ -4972,12 +4962,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>466600</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
@@ -5007,12 +4997,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>454000</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
@@ -5042,12 +5032,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>485000</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
@@ -5077,12 +5067,12 @@
           <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>779000</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
@@ -5112,12 +5102,12 @@
           <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>1784930</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
@@ -5147,12 +5137,12 @@
           <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>1569900</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
@@ -5182,12 +5172,12 @@
           <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>1840930</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
@@ -5217,12 +5207,12 @@
           <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>1170000</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
@@ -5252,12 +5242,12 @@
           <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>3500000</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
@@ -5287,12 +5277,12 @@
           <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>2039000</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
@@ -5322,12 +5312,12 @@
           <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>1127000</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
@@ -5357,12 +5347,12 @@
           <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>619000</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
@@ -5392,12 +5382,12 @@
           <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>1486000</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
@@ -5427,12 +5417,12 @@
           <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>1319900</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
@@ -5462,12 +5452,12 @@
           <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
@@ -5497,12 +5487,12 @@
           <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>463000</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
@@ -5532,12 +5522,12 @@
           <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>484000</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
@@ -5567,12 +5557,12 @@
           <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>516000</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
@@ -5602,12 +5592,12 @@
           <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>1014000</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
@@ -5637,12 +5627,12 @@
           <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>755000</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
@@ -5672,12 +5662,12 @@
           <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>660000</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
@@ -5707,12 +5697,12 @@
           <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>573000</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
@@ -5742,12 +5732,12 @@
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>698000</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
@@ -5777,12 +5767,12 @@
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>697000</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
@@ -5812,12 +5802,12 @@
           <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>583000</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
@@ -5847,12 +5837,12 @@
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>741000</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
@@ -5882,12 +5872,12 @@
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>721000</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
@@ -5917,12 +5907,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>1547000</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
@@ -5952,12 +5942,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>1807000</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
@@ -5987,12 +5977,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>1247000</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
@@ -6022,12 +6012,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>685000</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
@@ -6057,12 +6047,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>2128000</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
@@ -6092,12 +6082,12 @@
           <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>2421000</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
@@ -6127,12 +6117,12 @@
           <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>1749300</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
@@ -6162,12 +6152,12 @@
           <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>1407000</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
@@ -6197,12 +6187,12 @@
           <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>1426600</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
@@ -6232,12 +6222,12 @@
           <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>1444800</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
@@ -6267,12 +6257,12 @@
           <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>3189000</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
@@ -6302,12 +6292,12 @@
           <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>4599000</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
@@ -6337,12 +6327,12 @@
           <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>635000</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
@@ -6372,12 +6362,12 @@
           <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>709000</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
@@ -6407,12 +6397,12 @@
           <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>727000</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
@@ -6442,12 +6432,12 @@
           <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>1417000</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
@@ -6477,12 +6467,12 @@
           <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>1829000</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
@@ -6512,12 +6502,12 @@
           <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>662400</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
@@ -6547,12 +6537,12 @@
           <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>1411900</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
@@ -6582,12 +6572,12 @@
           <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>1534900</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
@@ -6617,12 +6607,12 @@
           <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>1112600</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
         </is>
@@ -6652,12 +6642,12 @@
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3191,7 +3191,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,67 +3236,67 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2439900</v>
+        <v>2099930</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>890000</v>
+        <v>2439900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,42 +3341,42 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3394,14 +3394,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1417650</v>
+        <v>1349000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1790000</v>
+        <v>1417650</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,67 +3481,67 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2098530</v>
+        <v>1790000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1169900</v>
+        <v>2098530</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1289900</v>
+        <v>1169900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1234900</v>
+        <v>1289900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1339000</v>
+        <v>1234900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>739900</v>
+        <v>1339000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1534900</v>
+        <v>739900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>629900</v>
+        <v>1534900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>847900</v>
+        <v>629900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>758900</v>
+        <v>847900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1002900</v>
+        <v>758900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>884900</v>
+        <v>1002900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,67 +3936,67 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>354400</v>
+        <v>962900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>368500</v>
+        <v>354400</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>365500</v>
+        <v>368500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>348500</v>
+        <v>365500</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>412500</v>
+        <v>348500</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>340900</v>
+        <v>412500</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>617900</v>
+        <v>340900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>530000</v>
+        <v>617900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>531000</v>
+        <v>530000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>587000</v>
+        <v>531000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>608900</v>
+        <v>587000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>708900</v>
+        <v>608900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>659000</v>
+        <v>708900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>547000</v>
+        <v>659000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>969900</v>
+        <v>547000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1132900</v>
+        <v>969900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>913900</v>
+        <v>1132900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1109900</v>
+        <v>1028900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>919900</v>
+        <v>1109900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>821900</v>
+        <v>919900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>829900</v>
+        <v>1006900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1297900</v>
+        <v>829900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,67 +4846,67 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>614000</v>
+        <v>496900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>734000</v>
+        <v>614000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>689900</v>
+        <v>734000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>466600</v>
+        <v>689900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>454000</v>
+        <v>466600</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>485000</v>
+        <v>454000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,67 +5056,67 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>779000</v>
+        <v>485000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1784930</v>
+        <v>779000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1569900</v>
+        <v>1784930</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,67 +5161,67 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1840930</v>
+        <v>1569900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1170000</v>
+        <v>1840930</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,67 +5231,67 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3500000</v>
+        <v>1170000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2039000</v>
+        <v>3500000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5301,32 +5301,32 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1127000</v>
+        <v>2039000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,32 +5336,32 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>619000</v>
+        <v>1127000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,67 +5371,67 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1486000</v>
+        <v>619000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1319900</v>
+        <v>1486000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,67 +5441,67 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1449900</v>
+        <v>1319900</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>463000</v>
+        <v>1449900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>484000</v>
+        <v>463000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,67 +5546,67 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>516000</v>
+        <v>484000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1014000</v>
+        <v>516000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>755000</v>
+        <v>1014000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,32 +5651,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>660000</v>
+        <v>755000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>573000</v>
+        <v>660000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>698000</v>
+        <v>573000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>697000</v>
+        <v>698000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>583000</v>
+        <v>697000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>741000</v>
+        <v>583000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,67 +5861,67 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>721000</v>
+        <v>741000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1547000</v>
+        <v>721000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,32 +5931,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1807000</v>
+        <v>1547000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,32 +5966,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1247000</v>
+        <v>1807000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,32 +6001,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>685000</v>
+        <v>1247000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,32 +6036,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2128000</v>
+        <v>685000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,67 +6071,67 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,32 +6176,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,67 +6211,67 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3189000</v>
+        <v>1444800</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,67 +6281,67 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>4599000</v>
+        <v>3189000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>635000</v>
+        <v>4599000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,32 +6351,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>709000</v>
+        <v>635000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6386,67 +6386,67 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>727000</v>
+        <v>709000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1417000</v>
+        <v>727000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6456,32 +6456,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1829000</v>
+        <v>1417000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1417000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6491,32 +6491,32 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6526,32 +6526,32 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1411900</v>
+        <v>662400</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6561,93 +6561,128 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1534900</v>
+        <v>1411900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1411900</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1112600</v>
+        <v>1534900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D179" t="n">
         <v>884600</v>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1154,14 +1154,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1171,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1079900</v>
+        <v>1631000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1079900</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1206,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>640900</v>
+        <v>1079900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>640900</t>
+          <t>1079900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 5</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>987900</v>
+        <v>640900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>987900</t>
+          <t>640900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,32 +1276,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1137900</v>
+        <v>987900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1137900</t>
+          <t>987900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1311,32 +1311,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1559900</v>
+        <v>1137900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1559900</t>
+          <t>1137900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1346,32 +1346,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1939000</v>
+        <v>1559900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1559900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1289900</v>
+        <v>1939000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1229900</v>
+        <v>1289900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3089900</v>
+        <v>1229900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1486,67 +1486,67 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2912000</v>
+        <v>3089900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2912000</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>617900</v>
+        <v>2912000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>2912000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1556,32 +1556,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>567900</v>
+        <v>617900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1591,67 +1591,67 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>627900</v>
+        <v>567900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1110000</v>
+        <v>627900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1110000</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1661,67 +1661,67 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1149000</v>
+        <v>1110000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1110000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1449900</v>
+        <v>1149000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4600000</v>
+        <v>1449900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4600000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1766,32 +1766,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1449900</v>
+        <v>4600000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>4600000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1801,67 +1801,67 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2515900</v>
+        <v>1449900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2515900</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1718000</v>
+        <v>2515900</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1718000</t>
+          <t>2515900</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1678610</v>
+        <v>1718000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1678610</t>
+          <t>1718000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1555000</v>
+        <v>1678610</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1555000</t>
+          <t>1678610</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2490000</v>
+        <v>1555000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2490000</t>
+          <t>1555000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>898000</v>
+        <v>2490000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>2490000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2011,67 +2011,67 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>938000</v>
+        <v>898000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1574300</v>
+        <v>938000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2081,102 +2081,102 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2729300</v>
+        <v>1379400</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1379400</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1177990</v>
+        <v>1574300</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1177990</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2236493</v>
+        <v>2729300</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2236493</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1554990</v>
+        <v>1177990</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1554990</t>
+          <t>1177990</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1935990</v>
+        <v>2236493</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1935990</t>
+          <t>2236493</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>865990</v>
+        <v>1554990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>865990</t>
+          <t>1554990</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1794990</v>
+        <v>1935990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1794990</t>
+          <t>1935990</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1799990</v>
+        <v>865990</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1799990</t>
+          <t>865990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>867990</v>
+        <v>1794990</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>1794990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>987990</v>
+        <v>1799990</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>1799990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,32 +2431,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3039000</v>
+        <v>867990</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3039000</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2414993</v>
+        <v>987990</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,102 +2501,102 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1859990</v>
+        <v>3039000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>3039000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1789000</v>
+        <v>2414993</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1789000</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2709000</v>
+        <v>1859990</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2709000</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1189000</v>
+        <v>1789000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1189000</t>
+          <t>1789000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1259000</v>
+        <v>2709000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>2709000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1137000</v>
+        <v>1189000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1189000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,32 +2711,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1863000</v>
+        <v>1259000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1049000</v>
+        <v>1589400</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>1589400</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1399300</v>
+        <v>1137000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,137 +2816,137 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1349000</v>
+        <v>1863000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>979000</v>
+        <v>1049000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1067000</v>
+        <v>1399300</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>685000</v>
+        <v>1349000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1482000</v>
+        <v>979000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,142 +2991,142 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1489000</v>
+        <v>1067000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>779000</v>
+        <v>685000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>315000</v>
+        <v>1482000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1199000</v>
+        <v>1489000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3135,553 +3135,553 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2439900</v>
+        <v>779000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1529900</v>
+        <v>315000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2631300</v>
+        <v>1199000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2099930</v>
+        <v>2439900</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2439900</v>
+        <v>2669400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>890000</v>
+        <v>1529900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1190000</v>
+        <v>2631300</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1349000</v>
+        <v>2099930</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1349000</v>
+        <v>2439900</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1417650</v>
+        <v>890000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1790000</v>
+        <v>1190000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2098530</v>
+        <v>1349000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1169900</v>
+        <v>1349000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1289900</v>
+        <v>1417650</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1234900</v>
+        <v>1790000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1339000</v>
+        <v>2098530</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>739900</v>
+        <v>1169900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1534900</v>
+        <v>1289900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>629900</v>
+        <v>1234900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>847900</v>
+        <v>1339000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>758900</v>
+        <v>739900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1002900</v>
+        <v>1534900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>884900</v>
+        <v>629900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1829000</v>
+        <v>847900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,172 +3971,172 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>962900</v>
+        <v>758900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>354400</v>
+        <v>1002900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>368500</v>
+        <v>884900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>365500</v>
+        <v>1829000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>348500</v>
+        <v>962900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>412500</v>
+        <v>354400</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>340900</v>
+        <v>368500</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>617900</v>
+        <v>365500</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>530000</v>
+        <v>348500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>531000</v>
+        <v>412500</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>587000</v>
+        <v>340900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>608900</v>
+        <v>617900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>708900</v>
+        <v>530000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>659000</v>
+        <v>531000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>547000</v>
+        <v>587000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>969900</v>
+        <v>608900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1132900</v>
+        <v>708900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>913900</v>
+        <v>659000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1028900</v>
+        <v>547000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1109900</v>
+        <v>969900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>919900</v>
+        <v>1132900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>821900</v>
+        <v>913900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1006900</v>
+        <v>1028900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>829900</v>
+        <v>1109900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1297900</v>
+        <v>919900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>496900</v>
+        <v>821900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,172 +4881,172 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>614000</v>
+        <v>1006900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>734000</v>
+        <v>829900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>689900</v>
+        <v>1297900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>466600</v>
+        <v>496900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>454000</v>
+        <v>614000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,32 +5056,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>485000</v>
+        <v>734000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,662 +5091,662 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>779000</v>
+        <v>689900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1784930</v>
+        <v>466600</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1569900</v>
+        <v>454000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1840930</v>
+        <v>485000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1170000</v>
+        <v>779000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3500000</v>
+        <v>1784930</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2039000</v>
+        <v>1569900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1127000</v>
+        <v>1840930</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>619000</v>
+        <v>1170000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1486000</v>
+        <v>3500000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1319900</v>
+        <v>2039000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1449900</v>
+        <v>1127000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>463000</v>
+        <v>619000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>484000</v>
+        <v>1486000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>516000</v>
+        <v>1319900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1014000</v>
+        <v>1449900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>755000</v>
+        <v>463000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>660000</v>
+        <v>484000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>573000</v>
+        <v>516000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>698000</v>
+        <v>1014000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>697000</v>
+        <v>755000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>583000</v>
+        <v>660000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>741000</v>
+        <v>573000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,172 +5896,172 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>721000</v>
+        <v>698000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1547000</v>
+        <v>697000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1807000</v>
+        <v>583000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1247000</v>
+        <v>741000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>685000</v>
+        <v>721000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,32 +6071,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2128000</v>
+        <v>1547000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,487 +6106,487 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2421000</v>
+        <v>1807000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1749300</v>
+        <v>1247000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1407000</v>
+        <v>685000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1426600</v>
+        <v>2128000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1444800</v>
+        <v>2421000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3189000</v>
+        <v>1749300</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4599000</v>
+        <v>1407000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>635000</v>
+        <v>1426600</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>709000</v>
+        <v>1444800</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>727000</v>
+        <v>3189000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1417000</v>
+        <v>4599000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1829000</v>
+        <v>635000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>662400</v>
+        <v>709000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1411900</v>
+        <v>727000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6596,93 +6596,233 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1534900</v>
+        <v>1417000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1417000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1112600</v>
+        <v>1829000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1411900</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D183" t="n">
         <v>884600</v>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>autocenter-stav.ru_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>autocenter-stav.ru</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>autocenter-stav.ru_price</t>
         </is>
       </c>
     </row>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2799,14 +2799,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1863000</v>
+        <v>2219400</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1049000</v>
+        <v>1863000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1399300</v>
+        <v>1049000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,67 +2921,67 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1349000</v>
+        <v>1399300</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>979000</v>
+        <v>1349000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1067000</v>
+        <v>979000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>685000</v>
+        <v>1067000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,32 +3061,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1482000</v>
+        <v>685000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,67 +3096,67 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1489000</v>
+        <v>1482000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>779000</v>
+        <v>1489000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>315000</v>
+        <v>779000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,67 +3201,67 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1199000</v>
+        <v>315000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2439900</v>
+        <v>1199000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,67 +3271,67 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2669400</v>
+        <v>2439900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1529900</v>
+        <v>2669400</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2631300</v>
+        <v>1529900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,67 +3411,67 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439900</v>
+        <v>2099930</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>890000</v>
+        <v>2439900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,42 +3516,42 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3569,14 +3569,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1417650</v>
+        <v>1349000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1790000</v>
+        <v>1417650</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,67 +3656,67 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2098530</v>
+        <v>1790000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1169900</v>
+        <v>2098530</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1289900</v>
+        <v>1169900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1234900</v>
+        <v>1289900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1339000</v>
+        <v>1234900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>739900</v>
+        <v>1339000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1534900</v>
+        <v>739900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>629900</v>
+        <v>1534900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>847900</v>
+        <v>629900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>758900</v>
+        <v>847900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1002900</v>
+        <v>758900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>884900</v>
+        <v>1002900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,67 +4111,67 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>354400</v>
+        <v>962900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>368500</v>
+        <v>354400</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>365500</v>
+        <v>368500</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>348500</v>
+        <v>365500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>412500</v>
+        <v>348500</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>340900</v>
+        <v>412500</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>617900</v>
+        <v>340900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>530000</v>
+        <v>617900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>531000</v>
+        <v>530000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>587000</v>
+        <v>531000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>608900</v>
+        <v>587000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>708900</v>
+        <v>608900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>659000</v>
+        <v>708900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>547000</v>
+        <v>659000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>969900</v>
+        <v>547000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1132900</v>
+        <v>969900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>913900</v>
+        <v>1132900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1109900</v>
+        <v>1028900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>919900</v>
+        <v>1109900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>821900</v>
+        <v>919900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>829900</v>
+        <v>1006900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1297900</v>
+        <v>829900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,67 +5021,67 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>614000</v>
+        <v>496900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>734000</v>
+        <v>614000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>689900</v>
+        <v>734000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>466600</v>
+        <v>689900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,32 +5161,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>454000</v>
+        <v>466600</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>485000</v>
+        <v>454000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,67 +5231,67 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>779000</v>
+        <v>485000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1784930</v>
+        <v>779000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5301,32 +5301,32 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1569900</v>
+        <v>1784930</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,67 +5336,67 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1840930</v>
+        <v>1569900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1170000</v>
+        <v>1840930</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,67 +5406,67 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3500000</v>
+        <v>1170000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2039000</v>
+        <v>3500000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,32 +5476,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1127000</v>
+        <v>2039000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>619000</v>
+        <v>1127000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,67 +5546,67 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1486000</v>
+        <v>619000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1319900</v>
+        <v>1486000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,67 +5616,67 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1449900</v>
+        <v>1319900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>463000</v>
+        <v>1449900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>484000</v>
+        <v>463000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,67 +5721,67 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>516000</v>
+        <v>484000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1014000</v>
+        <v>516000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>755000</v>
+        <v>1014000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>660000</v>
+        <v>755000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>573000</v>
+        <v>660000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>698000</v>
+        <v>573000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,32 +5931,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>697000</v>
+        <v>698000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,32 +5966,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>583000</v>
+        <v>697000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,32 +6001,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>741000</v>
+        <v>583000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,67 +6036,67 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>721000</v>
+        <v>741000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1547000</v>
+        <v>721000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1807000</v>
+        <v>1547000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1247000</v>
+        <v>1807000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,32 +6176,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>685000</v>
+        <v>1247000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,32 +6211,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2128000</v>
+        <v>685000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,67 +6246,67 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6316,32 +6316,32 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,32 +6351,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6386,67 +6386,67 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3189000</v>
+        <v>1444800</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6456,67 +6456,67 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>4599000</v>
+        <v>3189000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>635000</v>
+        <v>4599000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6526,32 +6526,32 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>709000</v>
+        <v>635000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6561,67 +6561,67 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>727000</v>
+        <v>709000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1417000</v>
+        <v>727000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6631,32 +6631,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1829000</v>
+        <v>1417000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1417000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6666,32 +6666,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6701,32 +6701,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1411900</v>
+        <v>662400</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6736,93 +6736,128 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1534900</v>
+        <v>1411900</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1411900</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1112600</v>
+        <v>1534900</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D184" t="n">
         <v>884600</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,77 +601,77 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1039900</v>
+        <v>1935990</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1039900</t>
+          <t>1935990</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1589900</v>
+        <v>1695714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1589900</t>
+          <t>1695714</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>767000</v>
+        <v>1039900</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>767000</t>
+          <t>1039900</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -716,32 +716,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1913900</v>
+        <v>1589900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1913900</t>
+          <t>1589900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1442900</v>
+        <v>767000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1442900</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -786,32 +786,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2389900</v>
+        <v>1913900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2389900</t>
+          <t>1913900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -821,32 +821,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2999900</v>
+        <v>1442900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2999900</t>
+          <t>1442900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -856,32 +856,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1599900</v>
+        <v>2389900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1599900</t>
+          <t>2389900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,32 +891,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2809900</v>
+        <v>2999900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2809900</t>
+          <t>2999900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,32 +926,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1989900</v>
+        <v>1599900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1989900</t>
+          <t>1599900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -961,32 +961,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3279900</v>
+        <v>2809900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3279900</t>
+          <t>2809900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2109900</v>
+        <v>1989900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>1989900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1031,102 +1031,102 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1919900</v>
+        <v>3279900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1919900</t>
+          <t>3279900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1960000</v>
+        <v>2109900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1960000</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>661900</v>
+        <v>1919900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>661900</t>
+          <t>1919900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,32 +1136,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>867900</v>
+        <v>1960000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>867900</t>
+          <t>1960000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1171,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1631000</v>
+        <v>661900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1206,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1079900</v>
+        <v>867900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1079900</t>
+          <t>867900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640900</v>
+        <v>1631000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>640900</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,32 +1276,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>987900</v>
+        <v>1079900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>987900</t>
+          <t>1079900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1311,32 +1311,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 5</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1137900</v>
+        <v>640900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1137900</t>
+          <t>640900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1346,32 +1346,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1559900</v>
+        <v>987900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1559900</t>
+          <t>987900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1939000</v>
+        <v>1137900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1137900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1289900</v>
+        <v>1559900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1559900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1229900</v>
+        <v>1939000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3089900</v>
+        <v>1289900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1521,102 +1521,102 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2912000</v>
+        <v>1229900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2912000</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>617900</v>
+        <v>3089900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>567900</v>
+        <v>2912000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>2912000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1626,172 +1626,172 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>627900</v>
+        <v>617900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>627900</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1110000</v>
+        <v>567900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1110000</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1149000</v>
+        <v>627900</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>627900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1449900</v>
+        <v>1110000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1110000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4600000</v>
+        <v>1149000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4600000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1819,14 +1819,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1836,102 +1836,102 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2515900</v>
+        <v>4600000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2515900</t>
+          <t>4600000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1718000</v>
+        <v>1449900</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1718000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1678610</v>
+        <v>2515900</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1678610</t>
+          <t>2515900</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1555000</v>
+        <v>1718000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1555000</t>
+          <t>1718000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2490000</v>
+        <v>1678610</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2490000</t>
+          <t>1678610</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2011,32 +2011,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>898000</v>
+        <v>1555000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>1555000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2046,102 +2046,102 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>938000</v>
+        <v>2490000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>2490000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1379400</v>
+        <v>898000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1379400</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1574300</v>
+        <v>938000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1574300</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2151,102 +2151,102 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2729300</v>
+        <v>1379400</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1379400</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1177990</v>
+        <v>1574300</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1177990</t>
+          <t>1574300</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2236493</v>
+        <v>2729300</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2236493</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1554990</v>
+        <v>1177990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1554990</t>
+          <t>1177990</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1935990</v>
+        <v>2236493</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1935990</t>
+          <t>2236493</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>865990</v>
+        <v>1554990</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>865990</t>
+          <t>1554990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1794990</v>
+        <v>865990</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1794990</t>
+          <t>865990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1799990</v>
+        <v>1794990</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1799990</t>
+          <t>1794990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,32 +2431,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>867990</v>
+        <v>1799990</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>1799990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>987990</v>
+        <v>867990</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,32 +2501,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3039000</v>
+        <v>987990</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3039000</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2536,32 +2536,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2414993</v>
+        <v>3039000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>3039000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2571,67 +2571,67 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1859990</v>
+        <v>2414993</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1789000</v>
+        <v>1859990</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1789000</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2709000</v>
+        <v>1789000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2709000</t>
+          <t>1789000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1189000</v>
+        <v>2709000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1189000</t>
+          <t>2709000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,32 +2711,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1259000</v>
+        <v>1189000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>1189000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1589400</v>
+        <v>1259000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1589400</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1137000</v>
+        <v>1589400</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1589400</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2219400</v>
+        <v>1137000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1863000</v>
+        <v>2219400</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1049000</v>
+        <v>1863000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1399300</v>
+        <v>1049000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,67 +2956,67 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1349000</v>
+        <v>1399300</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>979000</v>
+        <v>1349000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1067000</v>
+        <v>979000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,32 +3061,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>685000</v>
+        <v>1067000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,32 +3096,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1482000</v>
+        <v>685000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,67 +3131,67 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1489000</v>
+        <v>1482000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>779000</v>
+        <v>1489000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>315000</v>
+        <v>779000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,67 +3236,67 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1199000</v>
+        <v>315000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2439900</v>
+        <v>1199000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,67 +3306,67 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2669400</v>
+        <v>2439900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1529900</v>
+        <v>2669400</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2631300</v>
+        <v>1529900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,67 +3446,67 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2439900</v>
+        <v>2099930</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>890000</v>
+        <v>2439900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1190000</v>
+        <v>890000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,42 +3551,42 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3604,14 +3604,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1417650</v>
+        <v>1349000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1790000</v>
+        <v>1417650</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,67 +3691,67 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2098530</v>
+        <v>1790000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1169900</v>
+        <v>2098530</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1289900</v>
+        <v>1169900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1234900</v>
+        <v>1289900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1339000</v>
+        <v>1234900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>739900</v>
+        <v>1339000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1534900</v>
+        <v>739900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>629900</v>
+        <v>1534900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>847900</v>
+        <v>629900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>758900</v>
+        <v>847900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1002900</v>
+        <v>758900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>884900</v>
+        <v>1002900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,67 +4146,67 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>354400</v>
+        <v>962900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>368500</v>
+        <v>354400</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>365500</v>
+        <v>368500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>348500</v>
+        <v>365500</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>412500</v>
+        <v>348500</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>340900</v>
+        <v>412500</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>617900</v>
+        <v>340900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>530000</v>
+        <v>617900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>531000</v>
+        <v>530000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>587000</v>
+        <v>531000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>608900</v>
+        <v>587000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>708900</v>
+        <v>608900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>659000</v>
+        <v>708900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>547000</v>
+        <v>659000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>969900</v>
+        <v>547000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1132900</v>
+        <v>969900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>913900</v>
+        <v>1132900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1109900</v>
+        <v>1028900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>919900</v>
+        <v>1109900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>821900</v>
+        <v>919900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>829900</v>
+        <v>1006900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1297900</v>
+        <v>829900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,67 +5056,67 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>614000</v>
+        <v>496900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>734000</v>
+        <v>614000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>689900</v>
+        <v>734000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,32 +5161,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>466600</v>
+        <v>689900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>454000</v>
+        <v>466600</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>485000</v>
+        <v>454000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,67 +5266,67 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>779000</v>
+        <v>485000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1784930</v>
+        <v>779000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,32 +5336,32 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1569900</v>
+        <v>1784930</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,67 +5371,67 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1840930</v>
+        <v>1569900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1170000</v>
+        <v>1840930</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,67 +5441,67 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3500000</v>
+        <v>1170000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2039000</v>
+        <v>3500000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1127000</v>
+        <v>2039000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,32 +5546,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>619000</v>
+        <v>1127000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,67 +5581,67 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1486000</v>
+        <v>619000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1319900</v>
+        <v>1486000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,67 +5651,67 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1449900</v>
+        <v>1319900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>463000</v>
+        <v>1449900</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>484000</v>
+        <v>463000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,67 +5756,67 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>516000</v>
+        <v>484000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1014000</v>
+        <v>516000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>755000</v>
+        <v>1014000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>660000</v>
+        <v>755000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>573000</v>
+        <v>660000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,32 +5931,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>698000</v>
+        <v>573000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,32 +5966,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>697000</v>
+        <v>698000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,32 +6001,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>583000</v>
+        <v>697000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,32 +6036,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>741000</v>
+        <v>583000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,67 +6071,67 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>721000</v>
+        <v>741000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1547000</v>
+        <v>721000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1807000</v>
+        <v>1547000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,32 +6176,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1247000</v>
+        <v>1807000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,32 +6211,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>685000</v>
+        <v>1247000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,32 +6246,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2128000</v>
+        <v>685000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,67 +6281,67 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,32 +6351,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6386,32 +6386,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6421,67 +6421,67 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3189000</v>
+        <v>1444800</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6491,67 +6491,67 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4599000</v>
+        <v>3189000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>635000</v>
+        <v>4599000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6561,32 +6561,32 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>709000</v>
+        <v>635000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6596,67 +6596,67 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>727000</v>
+        <v>709000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1417000</v>
+        <v>727000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6666,32 +6666,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1829000</v>
+        <v>1417000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1417000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6701,32 +6701,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6736,32 +6736,32 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1411900</v>
+        <v>662400</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6771,93 +6771,128 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1534900</v>
+        <v>1411900</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1411900</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1112600</v>
+        <v>1534900</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D185" t="n">
         <v>884600</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,16 @@
           <t>autocenter-stav.ru</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>autocenter-stavropol.ru_price</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>autocenter-stavropol.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -479,17 +489,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3609000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>3609000</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/bj40/</t>
         </is>
       </c>
     </row>
@@ -514,17 +534,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1589000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1589000</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
     </row>
@@ -549,17 +579,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/x35/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/baic/x35/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1609000</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/baic/x35/</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/x35/</t>
         </is>
       </c>
     </row>
@@ -584,17 +624,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/x55/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1928500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/baic/x55/</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1928500</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/baic/x55/</t>
         </is>
       </c>
     </row>
@@ -619,17 +669,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/belgee/x50/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1935990</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1935990</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
@@ -654,17 +714,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1695714</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>1695714</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
@@ -689,17 +759,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1039900</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>1039900</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
@@ -724,17 +804,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1589900</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1589900</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
@@ -759,17 +849,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>767000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>767000</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
@@ -794,17 +894,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1913900</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>1913900</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
@@ -829,17 +939,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1442900</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1442900</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
@@ -864,17 +984,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2389900</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>2389900</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
@@ -899,17 +1029,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2999900</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>2999900</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
@@ -934,17 +1074,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1599900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1599900</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
@@ -969,17 +1119,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2809900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>2809900</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1164,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1989900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1989900</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
@@ -1039,17 +1209,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3279900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>3279900</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1254,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2109900</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>2109900</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1299,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1919900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>1919900</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1344,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1960000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>1960000</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1389,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>661900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>661900</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
@@ -1214,17 +1434,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_i_restailing/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>867900</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>867900</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1479,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1631000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>1631000</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1524,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1079900</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>1079900</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1569,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>640900</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>640900</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
@@ -1354,17 +1614,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>987900</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>987900</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
@@ -1389,17 +1659,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1137900</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>1137900</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1704,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1559900</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>1559900</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -1459,17 +1749,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1939000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>1939000</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
@@ -1494,17 +1794,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>1289900</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1839,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1229900</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>1229900</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1884,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3089900</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>3089900</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1929,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2912000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>2912000</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1974,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>617900</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>617900</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
@@ -1669,17 +2019,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>567900</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
@@ -1704,17 +2064,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>627900</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>627900</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
@@ -1739,17 +2109,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1110000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>1110000</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
@@ -1774,17 +2154,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>1149000</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
@@ -1809,17 +2199,27 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
@@ -1844,17 +2244,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4600000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>4600000</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
@@ -1879,17 +2289,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
@@ -1914,17 +2334,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2515900</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>2515900</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
@@ -1949,17 +2379,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1718000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>1718000</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
@@ -1984,17 +2424,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1678610</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>1678610</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
@@ -2019,17 +2469,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1555000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>1555000</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2514,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2490000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>2490000</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
@@ -2089,17 +2559,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>898000</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
@@ -2124,17 +2604,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>938000</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2649,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1379400</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>1379400</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
@@ -2194,17 +2694,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1574300</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>1574300</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
@@ -2229,17 +2739,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2729300</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>2729300</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
@@ -2264,17 +2784,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1177990</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>1177990</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
@@ -2299,17 +2829,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2236493</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>2236493</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2874,27 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1554990</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>1554990</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2919,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>865990</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>865990</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
@@ -2404,17 +2964,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1794990</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>1794990</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
@@ -2439,17 +3009,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1799990</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>1799990</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
@@ -2474,17 +3054,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>867990</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>867990</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
@@ -2509,17 +3099,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>987990</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>987990</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
@@ -2544,17 +3144,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3039000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>3039000</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
@@ -2579,17 +3189,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2414993</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>2414993</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
@@ -2614,17 +3234,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1859990</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>1859990</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
@@ -2649,17 +3279,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1789000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>1789000</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
@@ -2684,17 +3324,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2709000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>2709000</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
@@ -2719,17 +3369,27 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1189000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>1189000</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
@@ -2754,17 +3414,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1259000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>1259000</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
@@ -2789,17 +3459,27 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1589400</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>1589400</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
@@ -2824,17 +3504,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1137000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>1137000</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
@@ -2859,17 +3549,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2219400</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>2219400</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
@@ -2894,17 +3594,27 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1863000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>1863000</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
@@ -2929,17 +3639,27 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1049000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>1049000</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
@@ -2964,17 +3684,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1399300</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>1399300</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3729,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
@@ -3034,17 +3774,27 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>979000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>979000</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
@@ -3069,17 +3819,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1067000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>1067000</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
@@ -3104,17 +3864,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>685000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>685000</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
@@ -3139,17 +3909,27 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1482000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>1482000</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
@@ -3174,17 +3954,27 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1489000</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>1489000</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
@@ -3209,17 +3999,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>779000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>779000</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
@@ -3244,17 +4044,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>315000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>315000</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
@@ -3279,17 +4089,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>1199000</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
@@ -3314,17 +4134,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2439900</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>2439900</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
@@ -3349,17 +4179,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2669400</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>2669400</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
@@ -3384,17 +4224,27 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1529900</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>1529900</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
@@ -3419,17 +4269,27 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2631300</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>2631300</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
@@ -3454,17 +4314,27 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2099930</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>2099930</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
@@ -3489,17 +4359,27 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2439900</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>2439900</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
@@ -3524,17 +4404,27 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>890000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>890000</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
@@ -3559,17 +4449,27 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1190000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>1190000</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
@@ -3594,17 +4494,27 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
@@ -3629,17 +4539,27 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>1349000</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
@@ -3664,17 +4584,27 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1417650</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>1417650</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
@@ -3699,17 +4629,27 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1790000</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>1790000</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
@@ -3734,17 +4674,27 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2098530</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>2098530</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
@@ -3769,17 +4719,27 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>1169900</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
@@ -3804,17 +4764,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>1289900</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
@@ -3839,17 +4809,27 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1234900</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>1234900</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
@@ -3874,17 +4854,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1339000</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>1339000</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
@@ -3909,17 +4899,27 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>739900</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>739900</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4944,27 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>1534900</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
@@ -3979,17 +4989,27 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>629900</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>629900</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
@@ -4014,17 +5034,27 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>847900</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>847900</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
@@ -4049,17 +5079,27 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>758900</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>758900</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
@@ -4084,17 +5124,27 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1002900</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>1002900</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
@@ -4119,17 +5169,27 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>884900</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
@@ -4154,17 +5214,27 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>1829000</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
@@ -4189,17 +5259,27 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>962900</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>962900</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
@@ -4224,17 +5304,27 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>354400</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>354400</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
@@ -4259,17 +5349,27 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>368500</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>368500</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
@@ -4294,17 +5394,27 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>365500</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>365500</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
@@ -4329,17 +5439,27 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>348500</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>348500</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
@@ -4364,17 +5484,27 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>412500</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>412500</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
@@ -4399,17 +5529,27 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>340900</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>340900</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
@@ -4434,17 +5574,27 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>617900</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>617900</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
@@ -4469,17 +5619,27 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>530000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>530000</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
@@ -4504,17 +5664,27 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>531000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>531000</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
@@ -4539,17 +5709,27 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>587000</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>587000</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
@@ -4574,17 +5754,27 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>608900</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>608900</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
@@ -4609,17 +5799,27 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>708900</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>708900</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
@@ -4644,17 +5844,27 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>659000</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>659000</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
@@ -4679,17 +5889,27 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>547000</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>547000</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
@@ -4714,17 +5934,27 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>969900</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>969900</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
@@ -4749,17 +5979,27 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1132900</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>1132900</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
@@ -4784,17 +6024,27 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>913900</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>913900</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
@@ -4819,17 +6069,27 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1028900</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>1028900</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
@@ -4854,17 +6114,27 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1109900</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>1109900</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
@@ -4889,17 +6159,27 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>919900</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>919900</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
@@ -4924,17 +6204,27 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>821900</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>821900</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
@@ -4959,17 +6249,27 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1006900</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>1006900</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
@@ -4994,17 +6294,27 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>829900</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>829900</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
@@ -5029,17 +6339,27 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>1297900</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
@@ -5064,17 +6384,27 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>496900</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>496900</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
@@ -5099,17 +6429,27 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>614000</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
@@ -5134,17 +6474,27 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>734000</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>734000</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
@@ -5169,17 +6519,27 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>689900</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>689900</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
@@ -5204,17 +6564,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>466600</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>466600</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
@@ -5239,17 +6609,27 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>454000</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>454000</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
@@ -5274,17 +6654,27 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>485000</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>485000</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
@@ -5309,17 +6699,27 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>779000</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>779000</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
@@ -5344,17 +6744,27 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>1784930</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
@@ -5379,17 +6789,27 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1569900</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>1569900</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
@@ -5414,17 +6834,27 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>1840930</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
@@ -5449,17 +6879,27 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>1170000</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
@@ -5484,17 +6924,27 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3500000</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>3500000</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
@@ -5519,17 +6969,27 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2039000</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>2039000</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
@@ -5554,17 +7014,27 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1127000</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>1127000</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
@@ -5589,17 +7059,27 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>619000</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>619000</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
@@ -5624,17 +7104,27 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1486000</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>1486000</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
@@ -5659,17 +7149,27 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1319900</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>1319900</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
@@ -5694,17 +7194,27 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
@@ -5729,17 +7239,27 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>463000</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>463000</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
@@ -5764,17 +7284,27 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>484000</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>484000</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
@@ -5799,17 +7329,27 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>516000</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
@@ -5834,17 +7374,27 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>1014000</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
@@ -5869,17 +7419,27 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>755000</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>755000</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
@@ -5904,17 +7464,27 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>660000</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>660000</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
@@ -5939,17 +7509,27 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>573000</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>573000</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
@@ -5974,17 +7554,27 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>698000</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>698000</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
@@ -6009,17 +7599,27 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>697000</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>697000</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
@@ -6044,17 +7644,27 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>583000</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>583000</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
@@ -6079,17 +7689,27 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>741000</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>741000</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
@@ -6114,17 +7734,27 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>721000</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>721000</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
@@ -6149,17 +7779,27 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1547000</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>1547000</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
@@ -6184,17 +7824,27 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>1807000</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
@@ -6219,17 +7869,27 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1247000</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>1247000</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
@@ -6254,17 +7914,27 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>685000</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>685000</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
@@ -6289,17 +7959,27 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2128000</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>2128000</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
@@ -6324,17 +8004,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2421000</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>2421000</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
@@ -6359,17 +8049,27 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1749300</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>1749300</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
@@ -6394,17 +8094,27 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>1407000</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
@@ -6429,17 +8139,27 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1426600</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>1426600</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
@@ -6464,17 +8184,27 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>1444800</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
@@ -6499,17 +8229,27 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3189000</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>3189000</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
@@ -6534,17 +8274,27 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4599000</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>4599000</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
@@ -6569,17 +8319,27 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>635000</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>635000</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
@@ -6604,17 +8364,27 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>709000</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>709000</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
@@ -6639,17 +8409,27 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>727000</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>727000</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
@@ -6674,17 +8454,27 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>1417000</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
@@ -6709,17 +8499,27 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>1829000</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
@@ -6744,17 +8544,27 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>662400</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
@@ -6779,17 +8589,27 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>1411900</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
@@ -6814,17 +8634,27 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>1534900</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
@@ -6849,17 +8679,27 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>1112600</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
@@ -6884,17 +8724,27 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>884600</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D163" t="n">

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,7 +2901,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2911,42 +2911,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>865990</v>
+        <v>2499990</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>865990</t>
-        </is>
+          <t>https://autocenter-stavropol.ru/auto/geely/cityray/</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2499990</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>865990</t>
-        </is>
+          <t>https://autocenter-stav.ru/auto/geely/cityray/</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2499990</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/cityray/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2956,42 +2952,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1794990</v>
+        <v>865990</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1794990</t>
+          <t>865990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1794990</t>
+          <t>865990</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3001,42 +2997,42 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1799990</v>
+        <v>1794990</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1799990</t>
+          <t>1794990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1799990</t>
+          <t>1794990</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3046,42 +3042,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>867990</v>
+        <v>1799990</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>1799990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>1799990</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3091,42 +3087,42 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>987990</v>
+        <v>867990</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3136,42 +3132,42 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3039000</v>
+        <v>987990</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3039000</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3039000</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3181,42 +3177,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2414993</v>
+        <v>3039000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>3039000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>3039000</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3226,132 +3222,128 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1859990</v>
+        <v>2414993</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1789000</v>
+        <v>3357990</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1789000</t>
-        </is>
+          <t>https://autocenter-stavropol.ru/auto/geely/preface/</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3357990</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>1789000</t>
-        </is>
+          <t>https://autocenter-stav.ru/auto/geely/preface/</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3357990</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/preface/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2709000</v>
+        <v>1859990</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2709000</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2709000</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3361,42 +3353,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1189000</v>
+        <v>1789000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1189000</t>
+          <t>1789000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1189000</t>
+          <t>1789000</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3406,42 +3398,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1259000</v>
+        <v>2709000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>2709000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>2709000</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3451,42 +3443,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1589400</v>
+        <v>1189000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1589400</t>
+          <t>1189000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1589400</t>
+          <t>1189000</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3496,42 +3488,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1137000</v>
+        <v>1259000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3541,42 +3533,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2219400</v>
+        <v>1589400</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>1589400</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>1589400</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3586,42 +3578,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1863000</v>
+        <v>1137000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3631,42 +3623,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1049000</v>
+        <v>2219400</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3676,42 +3668,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1399300</v>
+        <v>1863000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3721,132 +3713,132 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1349000</v>
+        <v>1049000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>979000</v>
+        <v>1399300</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1067000</v>
+        <v>1349000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3856,42 +3848,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>685000</v>
+        <v>979000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3901,42 +3893,42 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1482000</v>
+        <v>1067000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3946,132 +3938,132 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1489000</v>
+        <v>685000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>779000</v>
+        <v>1482000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>315000</v>
+        <v>1489000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4081,222 +4073,222 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1199000</v>
+        <v>779000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2439900</v>
+        <v>315000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2669400</v>
+        <v>1199000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1529900</v>
+        <v>2439900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2631300</v>
+        <v>2669400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4306,42 +4298,42 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2099930</v>
+        <v>1529900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4351,132 +4343,132 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2439900</v>
+        <v>2631300</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>890000</v>
+        <v>2099930</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1190000</v>
+        <v>2439900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4486,132 +4478,132 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1349000</v>
+        <v>890000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1349000</v>
+        <v>1190000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1417650</v>
+        <v>1349000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4621,42 +4613,42 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1790000</v>
+        <v>1349000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4666,132 +4658,132 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2098530</v>
+        <v>1417650</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1169900</v>
+        <v>1790000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1289900</v>
+        <v>2098530</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4801,42 +4793,42 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1234900</v>
+        <v>1169900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4846,42 +4838,42 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1339000</v>
+        <v>1289900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4891,42 +4883,42 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>739900</v>
+        <v>1234900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4936,42 +4928,42 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1534900</v>
+        <v>1339000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4981,42 +4973,42 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>629900</v>
+        <v>739900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5026,42 +5018,42 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>847900</v>
+        <v>1534900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5071,42 +5063,42 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>758900</v>
+        <v>629900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5116,42 +5108,42 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1002900</v>
+        <v>847900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5161,42 +5153,42 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>884900</v>
+        <v>758900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5206,42 +5198,42 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1829000</v>
+        <v>1002900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5251,132 +5243,132 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>962900</v>
+        <v>884900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>354400</v>
+        <v>1829000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>368500</v>
+        <v>962900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5386,42 +5378,42 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>365500</v>
+        <v>354400</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5431,42 +5423,42 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>348500</v>
+        <v>368500</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5476,42 +5468,42 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>412500</v>
+        <v>365500</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5521,42 +5513,42 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>340900</v>
+        <v>348500</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5566,42 +5558,42 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>617900</v>
+        <v>412500</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5611,42 +5603,42 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>530000</v>
+        <v>931800</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>931800</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>931800</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5656,42 +5648,42 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>531000</v>
+        <v>895800</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>895800</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>895800</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5701,42 +5693,42 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>587000</v>
+        <v>804600</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>804600</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>804600</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5746,42 +5738,42 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>608900</v>
+        <v>828600</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>828600</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>828600</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5791,42 +5783,42 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>708900</v>
+        <v>340900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5836,42 +5828,42 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>659000</v>
+        <v>617900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5881,42 +5873,42 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>547000</v>
+        <v>530000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5926,42 +5918,42 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>969900</v>
+        <v>531000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5971,42 +5963,42 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1132900</v>
+        <v>587000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6016,42 +6008,42 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>913900</v>
+        <v>608900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6061,42 +6053,42 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1028900</v>
+        <v>708900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6106,42 +6098,42 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1109900</v>
+        <v>659000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6151,42 +6143,42 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>919900</v>
+        <v>547000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6196,42 +6188,42 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>821900</v>
+        <v>969900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6241,42 +6233,42 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1006900</v>
+        <v>1132900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6286,42 +6278,42 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>829900</v>
+        <v>913900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6331,42 +6323,42 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1297900</v>
+        <v>1028900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6376,42 +6368,42 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>496900</v>
+        <v>1109900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6421,1212 +6413,1212 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>614000</v>
+        <v>919900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>734000</v>
+        <v>821900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>689900</v>
+        <v>1006900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>466600</v>
+        <v>829900</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>454000</v>
+        <v>1297900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>485000</v>
+        <v>496900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>779000</v>
+        <v>614000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1784930</v>
+        <v>734000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1569900</v>
+        <v>689900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1840930</v>
+        <v>466600</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1170000</v>
+        <v>454000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3500000</v>
+        <v>485000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2039000</v>
+        <v>779000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1127000</v>
+        <v>1784930</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>619000</v>
+        <v>1569900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1486000</v>
+        <v>1840930</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1319900</v>
+        <v>1170000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1449900</v>
+        <v>3500000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>463000</v>
+        <v>2039000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>484000</v>
+        <v>1127000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>516000</v>
+        <v>619000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1014000</v>
+        <v>1486000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>755000</v>
+        <v>1319900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>660000</v>
+        <v>1449900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>573000</v>
+        <v>463000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>698000</v>
+        <v>484000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>697000</v>
+        <v>516000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7636,42 +7628,42 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>583000</v>
+        <v>1014000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7681,42 +7673,42 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>741000</v>
+        <v>755000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7726,1023 +7718,1293 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Sandero Stepway City</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>721000</v>
+        <v>660000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1547000</v>
+        <v>573000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1807000</v>
+        <v>698000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1247000</v>
+        <v>697000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>685000</v>
+        <v>583000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2128000</v>
+        <v>741000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2421000</v>
+        <v>721000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1749300</v>
+        <v>1547000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1407000</v>
+        <v>1807000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1426600</v>
+        <v>1247000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1444800</v>
+        <v>685000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3189000</v>
+        <v>2128000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4599000</v>
+        <v>2421000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
+          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>635000</v>
+        <v>1749300</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>709000</v>
+        <v>1407000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>727000</v>
+        <v>1426600</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1417000</v>
+        <v>1444800</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1829000</v>
+        <v>3189000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>3189000</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>662400</v>
+        <v>4599000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>4599000</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1411900</v>
+        <v>635000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>635000</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1534900</v>
+        <v>709000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1112600</v>
+        <v>727000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1417000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1411900</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D191" t="n">
         <v>884600</v>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/stavropol.xlsx
+++ b/xlsx/stavropol.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/bj40/</t>
+          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,16 +500,6 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3609000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/bj40/</t>
         </is>
       </c>
     </row>
@@ -534,7 +524,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/u5_plus/</t>
+          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,16 +535,6 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1589000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
     </row>
@@ -579,7 +559,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/x35/</t>
+          <t>https://autocenter-stav.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -590,16 +570,6 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/x35/</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/x35/</t>
         </is>
       </c>
     </row>
@@ -624,7 +594,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/x55/</t>
+          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -635,16 +605,6 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/baic/x55/</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1928500</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/baic/x55/</t>
         </is>
       </c>
     </row>
@@ -669,7 +629,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/belgee/x50/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -680,16 +640,6 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/belgee/x50/</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1935990</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
@@ -714,7 +664,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/belgee/x70/</t>
+          <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -725,16 +675,6 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/belgee/x70/</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1695714</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
@@ -759,7 +699,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/alsvin/</t>
+          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -770,16 +710,6 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1039900</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
@@ -804,7 +734,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs35_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -815,16 +745,6 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1589900</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
@@ -849,7 +769,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs55/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -860,16 +780,6 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>767000</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
@@ -894,7 +804,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs55_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -905,16 +815,6 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1913900</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
@@ -939,7 +839,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs75fl/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -950,16 +850,6 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1442900</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
@@ -984,7 +874,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs85_coupe/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -995,16 +885,6 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2389900</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
@@ -1029,7 +909,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs95/</t>
+          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1040,16 +920,6 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2999900</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
@@ -1074,7 +944,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/eado_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1085,16 +955,6 @@
       <c r="G15" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1599900</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
@@ -1119,7 +979,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/hunter_plus/</t>
+          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1130,16 +990,6 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2809900</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1014,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/lamore/</t>
+          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1175,16 +1025,6 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1989900</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1049,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-k/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1220,16 +1060,6 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3279900</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1084,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-t/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1265,16 +1095,6 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2109900</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1119,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-v/</t>
+          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1310,16 +1130,6 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1919900</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1154,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/arrizo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1355,16 +1165,6 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1960000</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1189,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_3/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1400,16 +1200,6 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>661900</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1224,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1445,16 +1235,6 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_i_restailing/</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>867900</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1259,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1490,16 +1270,6 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1631000</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1294,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1535,16 +1305,6 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1079900</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1329,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_5/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1580,16 +1340,6 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>640900</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1364,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1625,16 +1375,6 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>987900</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1399,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1670,16 +1410,6 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1137900</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1434,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1715,16 +1445,6 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1559900</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1469,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1760,16 +1480,6 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1939000</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1504,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1805,16 +1515,6 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1289900</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1539,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1850,16 +1550,6 @@
       <c r="G32" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1229900</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1574,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1895,16 +1585,6 @@
       <c r="G33" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3089900</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1609,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1940,16 +1620,6 @@
       <c r="G34" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2912000</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1644,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1985,16 +1655,6 @@
       <c r="G35" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>617900</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
@@ -2019,7 +1679,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2030,16 +1690,6 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>567900</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
@@ -2064,7 +1714,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/spark/</t>
+          <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2075,16 +1725,6 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>627900</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
@@ -2109,7 +1749,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/dfm/580/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2120,16 +1760,6 @@
       <c r="G38" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/dfm/580/</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1110000</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
@@ -2154,7 +1784,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/dfm/ax7/</t>
+          <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2165,16 +1795,6 @@
       <c r="G39" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/dfm/ax7/</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1149000</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
@@ -2199,7 +1819,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/lx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2210,16 +1830,6 @@
       <c r="G40" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1449900</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
@@ -2244,7 +1854,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/rx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2255,16 +1865,6 @@
       <c r="G41" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>4600000</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
@@ -2289,7 +1889,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/txl/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2300,16 +1900,6 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1449900</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
@@ -2334,7 +1924,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/vx/</t>
+          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2345,16 +1935,6 @@
       <c r="G43" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2515900</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
@@ -2379,7 +1959,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2390,16 +1970,6 @@
       <c r="G44" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1718000</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
@@ -2424,7 +1994,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2435,16 +2005,6 @@
       <c r="G45" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1678610</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2029,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2480,16 +2040,6 @@
       <c r="G46" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1555000</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2064,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t99/</t>
+          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2525,16 +2075,6 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2490000</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2099,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/x40/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2570,16 +2110,6 @@
       <c r="G48" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>898000</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2134,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/x80/</t>
+          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2615,16 +2145,6 @@
       <c r="G49" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>938000</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2169,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs3/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2660,16 +2180,6 @@
       <c r="G50" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1379400</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2204,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs5/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2705,16 +2215,6 @@
       <c r="G51" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/gac/gs5/</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1574300</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2239,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs8/</t>
+          <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2750,16 +2250,6 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/gac/gs8/</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2729300</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2274,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2795,16 +2285,6 @@
       <c r="G53" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1177990</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2309,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2840,16 +2320,6 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2236493</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2344,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas_pro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2885,16 +2355,6 @@
       <c r="G55" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1554990</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
@@ -2915,27 +2375,21 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2499990</v>
+        <v>1709994</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/cityray/</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2499990</v>
+          <t>https://autocenter-stav.ru/auto/geely/cityray/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1709994</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/cityray/</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2499990</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/cityray/</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2414,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2971,16 +2425,6 @@
       <c r="G57" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>865990</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
@@ -3005,7 +2449,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
+          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3016,16 +2460,6 @@
       <c r="G58" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1794990</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
@@ -3050,7 +2484,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3061,16 +2495,6 @@
       <c r="G59" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1799990</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
@@ -3095,7 +2519,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
+          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3106,16 +2530,6 @@
       <c r="G60" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>867990</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
@@ -3140,7 +2554,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
+          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3151,16 +2565,6 @@
       <c r="G61" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/gs/</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>987990</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
@@ -3185,7 +2589,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
+          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3196,16 +2600,6 @@
       <c r="G62" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>3039000</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
@@ -3230,7 +2624,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
+          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3241,16 +2635,6 @@
       <c r="G63" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2414993</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
@@ -3271,27 +2655,21 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3357990</v>
+        <v>2014794</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/preface/</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3357990</v>
+          <t>https://autocenter-stav.ru/auto/geely/preface/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2014794</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/preface/</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>3357990</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/preface/</t>
         </is>
       </c>
     </row>
@@ -3316,7 +2694,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
+          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3327,16 +2705,6 @@
       <c r="G65" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1859990</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
@@ -3361,7 +2729,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3372,16 +2740,6 @@
       <c r="G66" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1789000</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
@@ -3406,7 +2764,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3417,16 +2775,6 @@
       <c r="G67" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2709000</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
@@ -3447,31 +2795,21 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1189000</v>
+        <v>1709400</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7_ii/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1189000</t>
+          <t>1709400</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1189000</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7_ii/</t>
         </is>
       </c>
     </row>
@@ -3496,7 +2834,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
+          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3507,16 +2845,6 @@
       <c r="G69" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1259000</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
@@ -3541,7 +2869,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3552,16 +2880,6 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/h3/</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1589400</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
@@ -3586,7 +2904,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3597,16 +2915,6 @@
       <c r="G71" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1137000</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
@@ -3631,7 +2939,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3642,23 +2950,13 @@
       <c r="G72" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/haval/h5/</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2219400</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3668,42 +2966,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1863000</v>
+        <v>2099400</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h7/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1863000</t>
+          <t>2099400</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1863000</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/h9/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h7/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3713,42 +3001,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1049000</v>
+        <v>1863000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9_i_restailing/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1049000</t>
+          <t>1863000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1049000</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion_1/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3758,42 +3036,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H9 New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1399300</v>
+        <v>2759400</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1399300</t>
+          <t>2759400</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1399300</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/jolion/</t>
+          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3803,132 +3071,102 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1349000</v>
+        <v>1049000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1049000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/haval/m6/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>979000</v>
+        <v>1399300</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>979000</t>
+          <t>1399300</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>979000</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/creta/</t>
+          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1067000</v>
+        <v>1349000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1067000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>1067000</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/elantra/</t>
+          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3938,42 +3176,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>685000</v>
+        <v>979000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>685000</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/solaris/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3983,42 +3211,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1482000</v>
+        <v>1067000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1482000</t>
+          <t>1067000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1482000</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/sonata/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4028,132 +3246,102 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1489000</v>
+        <v>685000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1489000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>1489000</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/hyundai/tucson/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>779000</v>
+        <v>1482000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1482000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>779000</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/j7/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>315000</v>
+        <v>1489000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>1489000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>315000</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s3/</t>
+          <t>https://autocenter-stav.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4163,942 +3351,732 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1199000</v>
+        <v>779000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>1199000</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jac/s7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2439900</v>
+        <v>1133400</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/js3/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>1133400</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2439900</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j7/</t>
+          <t>https://autocenter-stav.ru/auto/jac/js3/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2669400</v>
+        <v>1685400</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jac/js6/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>1685400</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2669400</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jaecoo/j8/</t>
+          <t>https://autocenter-stav.ru/auto/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1529900</v>
+        <v>315000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>1529900</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/dashing/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2631300</v>
+        <v>1199000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2631300</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/t2/</t>
+          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2099930</v>
+        <v>1835400</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t8/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>1835400</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2099930</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x70_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2439900</v>
+        <v>1967400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t8_pro/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2439900</t>
+          <t>1967400</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2439900</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetour/x90_plus/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t8_pro/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>890000</v>
+        <v>2159400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t9/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2159400</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>890000</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/va3/</t>
+          <t>https://autocenter-stav.ru/auto/jac/t9/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1190000</v>
+        <v>2439900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>1190000</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs5/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1349000</v>
+        <v>2669400</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/jetta/vs7/</t>
+          <t>https://autocenter-stav.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1349000</v>
+        <v>1529900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/e5/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1417650</v>
+        <v>2631300</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1417650</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>1417650</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1790000</v>
+        <v>2099930</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>1790000</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2098530</v>
+        <v>2439900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2098530</t>
+          <t>2439900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2098530</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1169900</v>
+        <v>890000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>1169900</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1289900</v>
+        <v>1190000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>1289900</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/ceed_sw/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1234900</v>
+        <v>1349000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1234900</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>1234900</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/cerato/</t>
+          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1339000</v>
+        <v>1349000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1339000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>1339000</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/k5/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>739900</v>
+        <v>1417650</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>739900</t>
+          <t>1417650</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>739900</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/picanto/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1534900</v>
+        <v>1790000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>1534900</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/proceed/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>629900</v>
+        <v>2098530</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>2098530</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>629900</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio/</t>
+          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5108,42 +4086,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>847900</v>
+        <v>1169900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>847900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>847900</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5153,42 +4121,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>758900</v>
+        <v>1289900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>758900</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/rio_x-line/</t>
+          <t>https://autocenter-stav.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5198,42 +4156,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1002900</v>
+        <v>1234900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1002900</t>
+          <t>1234900</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>1002900</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/seltos/</t>
+          <t>https://autocenter-stav.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5243,42 +4191,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>884900</v>
+        <v>1339000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1339000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>884900</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/soul/</t>
+          <t>https://autocenter-stav.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5288,42 +4226,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1829000</v>
+        <v>739900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>739900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>1829000</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/sportage/</t>
+          <t>https://autocenter-stav.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5333,402 +4261,312 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>962900</v>
+        <v>1534900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>962900</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/kia/xceed/</t>
+          <t>https://autocenter-stav.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>354400</v>
+        <v>629900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>354400</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>354400</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>368500</v>
+        <v>847900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>368500</t>
+          <t>847900</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>368500</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>365500</v>
+        <v>758900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>365500</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>365500</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocenter-stav.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>348500</v>
+        <v>1002900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>348500</t>
+          <t>1002900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>348500</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocenter-stav.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>412500</v>
+        <v>884900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>412500</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autocenter-stav.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>931800</v>
+        <v>1829000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport_liftbek/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>931800</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sport_liftbek/</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>931800</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport_liftbek/</t>
+          <t>https://autocenter-stav.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>895800</v>
+        <v>962900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>895800</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sport/</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>895800</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>804600</v>
+        <v>2497794</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline/</t>
+          <t>https://autocenter-stav.ru/auto/knewstar/001/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>804600</t>
+          <t>2497794</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sportline/</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>804600</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline/</t>
+          <t>https://autocenter-stav.ru/auto/knewstar/001/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5738,42 +4576,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>828600</v>
+        <v>1559400</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline_liftbek/</t>
+          <t>https://autocenter-stav.ru/auto/lada/aura/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>828600</t>
+          <t>1559400</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_sportline_liftbek/</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>828600</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_sportline_liftbek/</t>
+          <t>https://autocenter-stav.ru/auto/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5783,42 +4611,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>340900</v>
+        <v>354400</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>340900</t>
+          <t>354400</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>340900</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/granta_universal/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5828,42 +4646,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>617900</v>
+        <v>368500</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>617900</t>
+          <t>368500</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>617900</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5873,42 +4681,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>530000</v>
+        <v>365500</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>365500</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>530000</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5918,42 +4716,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>531000</v>
+        <v>348500</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>531000</t>
+          <t>348500</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>531000</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/largus_furgon/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5963,42 +4751,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>587000</v>
+        <v>412500</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>587000</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6008,42 +4786,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>608900</v>
+        <v>931800</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>931800</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>608900</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6053,42 +4821,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>708900</v>
+        <v>895800</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>708900</t>
+          <t>895800</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>708900</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6098,42 +4856,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>659000</v>
+        <v>804600</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>804600</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>659000</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6143,42 +4891,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>547000</v>
+        <v>828600</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>547000</t>
+          <t>828600</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>547000</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/niva_travel/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6188,42 +4926,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>969900</v>
+        <v>340900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>340900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>969900</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6233,42 +4961,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1132900</v>
+        <v>617900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1132900</t>
+          <t>617900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>1132900</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6278,42 +4996,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>913900</v>
+        <v>530000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>913900</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6323,42 +5031,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1028900</v>
+        <v>531000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>531000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>1028900</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6368,42 +5066,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1109900</v>
+        <v>587000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1109900</t>
+          <t>587000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>1109900</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6413,42 +5101,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>919900</v>
+        <v>608900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>919900</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6458,42 +5136,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>821900</v>
+        <v>708900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>708900</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>821900</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_1/</t>
+          <t>https://autocenter-stav.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6503,42 +5171,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1006900</v>
+        <v>659000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>1006900</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_cng/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6548,42 +5206,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>829900</v>
+        <v>547000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>547000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>829900</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta/</t>
+          <t>https://autocenter-stav.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6593,42 +5241,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1297900</v>
+        <v>969900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>1297900</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6638,42 +5276,32 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>496900</v>
+        <v>1132900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1132900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>496900</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6683,2330 +5311,2230 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>614000</v>
+        <v>913900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>614000</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lada/xray_cross/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>734000</v>
+        <v>1028900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>734000</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/murman/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>689900</v>
+        <v>1109900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>689900</t>
+          <t>1109900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>689900</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/myway/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>466600</v>
+        <v>919900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>466600</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>466600</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>454000</v>
+        <v>1465800</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_sportline/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>454000</t>
+          <t>1465800</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>454000</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x50/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sw_sportline/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>485000</v>
+        <v>821900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>485000</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x60/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>779000</v>
+        <v>1006900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>779000</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/lifan/x70/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1784930</v>
+        <v>829900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>1784930</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/s6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1569900</v>
+        <v>1297900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>1569900</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x3pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1840930</v>
+        <v>1363800</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sportline/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1363800</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>1840930</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/livan/x6pro/</t>
+          <t>https://autocenter-stav.ru/auto/lada/vesta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1170000</v>
+        <v>496900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>1170000</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3500000</v>
+        <v>614000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>3500000</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/moskvich/3e/</t>
+          <t>https://autocenter-stav.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2039000</v>
+        <v>734000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2039000</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/murano/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1127000</v>
+        <v>689900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1127000</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>1127000</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/qashqai/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>619000</v>
+        <v>466600</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>466600</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>619000</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/terrano/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1486000</v>
+        <v>454000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1486000</t>
+          <t>454000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>1486000</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/nissan/x-trail/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1319900</v>
+        <v>485000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>1319900</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/c5/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1449900</v>
+        <v>779000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>1449900</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/omoda/s5/</t>
+          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>463000</v>
+        <v>1784930</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>463000</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>463000</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>484000</v>
+        <v>1569900</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>484000</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>484000</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r2/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>516000</v>
+        <v>1840930</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>516000</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/ravon/r4/</t>
+          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1014000</v>
+        <v>1170000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>1014000</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/arkana/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>755000</v>
+        <v>3500000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>755000</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>755000</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/duster/</t>
+          <t>https://autocenter-stav.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>660000</v>
+        <v>2039000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>660000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>660000</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/kaptur/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>573000</v>
+        <v>1127000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>1127000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>573000</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>698000</v>
+        <v>619000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>698000</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>697000</v>
+        <v>1486000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>697000</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>583000</v>
+        <v>1319900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5_i/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>583000</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>583000</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5_i/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>741000</v>
+        <v>1541940</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>1541940</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>741000</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Sandero Stepway City</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>721000</v>
+        <v>1449900</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>721000</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1547000</v>
+        <v>463000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1547000</t>
+          <t>463000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>1547000</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/karoq/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1807000</v>
+        <v>484000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>484000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>1807000</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1247000</v>
+        <v>516000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1247000</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>1247000</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/octavia/</t>
+          <t>https://autocenter-stav.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>685000</v>
+        <v>1014000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>685000</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/rapid/</t>
+          <t>https://autocenter-stav.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2128000</v>
+        <v>755000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>755000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2128000</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb/</t>
+          <t>https://autocenter-stav.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2421000</v>
+        <v>660000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>660000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2421000</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocenter-stav.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1749300</v>
+        <v>573000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>1749300</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hc/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1407000</v>
+        <v>698000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>1407000</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/hs/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1426600</v>
+        <v>697000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>1426600</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krs/</t>
+          <t>https://autocenter-stav.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1444800</v>
+        <v>583000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>583000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/solaris/krx/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3189000</v>
+        <v>741000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3189000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3189000</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/300/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4599000</v>
+        <v>721000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>4599000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>4599000</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/tank/500/</t>
+          <t>https://autocenter-stav.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>635000</v>
+        <v>1547000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>635000</t>
+          <t>1547000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>635000</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/hunter/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>709000</v>
+        <v>1807000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>709000</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>727000</v>
+        <v>1247000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>727000</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1417000</v>
+        <v>685000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1417000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>1417000</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/jetta/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1829000</v>
+        <v>2128000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>1829000</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/passat/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>662400</v>
+        <v>2421000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>662400</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/polo/</t>
+          <t>https://autocenter-stav.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1411900</v>
+        <v>1749300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1411900</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>1411900</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/taos/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1534900</v>
+        <v>1407000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>1534900</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1112600</v>
+        <v>1426600</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1112600</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>1112600</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/coupa/</t>
+          <t>https://autocenter-stav.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>KRX</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1444800</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>3189000</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3189000</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>4599000</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4599000</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>635000</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>635000</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Patriot</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>709000</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>709000</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Patriot Pickup</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>727000</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>727000</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1417000</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1411900</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1411900</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1112600</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D203" t="n">
         <v>884600</v>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
         <is>
           <t>884600</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>884600</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>https://autocenter-stavropol.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>
